--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3832969.176284015</v>
+        <v>3828664.836474147</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>161.2522220925146</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015057</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.2254363169647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>21.77034978617706</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.47446402420145</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.504602883664</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>149.6251088767081</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>228.986304502188</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
         <v>263.7138800015061</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>11.49641339816438</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.3009068674104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>162.3365071522756</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>239.7243020844123</v>
       </c>
       <c r="H8" t="n">
-        <v>230.9887173128623</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465008</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775162256</v>
+        <v>91.06264775160778</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115225</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>50.34571932179847</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.9105673562238</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.0177171766848</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.9570581017788</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581192</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.9114582540257</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428087</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>197.5531614304995</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.2997404547441</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428087</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456771</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>139.1630968205461</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>54.63637568893693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>166.0266533411978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>130.1208074460236</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>185.0663491738896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36.21070476472267</v>
+        <v>41.74133133758757</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>36.43062059490515</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>198.7323644553055</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>53.30076123484837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276839</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276839</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276839</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276839</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356492</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012046</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012046</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917545</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052536</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515898</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030595</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991302</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358399</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.544718794687</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.110662629815</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>686.110662629815</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V2" t="n">
-        <v>686.110662629815</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W2" t="n">
-        <v>419.7330060626375</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X2" t="n">
-        <v>419.7330060626375</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899459</v>
+        <v>586.7364457822814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4937968510532</v>
+        <v>217.5403919905173</v>
       </c>
       <c r="C3" t="n">
-        <v>158.4937968510532</v>
+        <v>43.08736270939025</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510532</v>
+        <v>43.08736270939025</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510532</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510532</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>100.9913896951724</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>247.7358133554688</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519925</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545973</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560879</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789491</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006023</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006023</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374604</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742738</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>629.9105956742738</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>375.6732389460722</v>
+        <v>801.367527981072</v>
       </c>
       <c r="X3" t="n">
-        <v>375.6732389460722</v>
+        <v>593.5160277755392</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.7091338711213</v>
+        <v>385.7557290105853</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.1499327403631</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012046</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012046</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287932</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726550993</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375319</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227028</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075523</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816801</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407055</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512168</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512168</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>568.1394836383804</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>568.1394836383804</v>
+        <v>616.7691879395783</v>
       </c>
       <c r="W4" t="n">
-        <v>568.1394836383804</v>
+        <v>616.7691879395783</v>
       </c>
       <c r="X4" t="n">
-        <v>340.1499327403631</v>
+        <v>388.7796370415609</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.1499327403631</v>
+        <v>167.9870578980309</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641.1186907988871</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>466.66566151776</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>317.7312518565088</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4649,10 +4649,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>268.3979551252636</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
         <v>529.4746963267547</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849117</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>641.1186907988871</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>641.1186907988871</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>641.1186907988871</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490.4777916095494</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="C7" t="n">
-        <v>490.4777916095494</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>490.4777916095494</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>490.4777916095494</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>343.5878441116391</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>581.6908288493579</v>
+        <v>890.8792501552412</v>
       </c>
       <c r="X7" t="n">
-        <v>581.6908288493579</v>
+        <v>662.8896992572238</v>
       </c>
       <c r="Y7" t="n">
-        <v>581.6908288493579</v>
+        <v>662.8896992572238</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1500.843518327223</v>
+        <v>1783.823588302843</v>
       </c>
       <c r="C8" t="n">
-        <v>1131.881001386812</v>
+        <v>1414.861071362431</v>
       </c>
       <c r="D8" t="n">
-        <v>773.6153027800613</v>
+        <v>1056.595372755681</v>
       </c>
       <c r="E8" t="n">
-        <v>773.6153027800613</v>
+        <v>670.8071201574362</v>
       </c>
       <c r="F8" t="n">
-        <v>362.6293979904537</v>
+        <v>663.8616194082327</v>
       </c>
       <c r="G8" t="n">
-        <v>350.9635800225249</v>
+        <v>421.7158597270082</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467177</v>
+        <v>187.3702251467164</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607436</v>
+        <v>442.1757437607407</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045951</v>
+        <v>795.1862829045904</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.564622661157</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762144</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858417</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858417</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858417</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="W8" t="n">
-        <v>1874.309276588303</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.843518327223</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.843518327223</v>
+        <v>2170.423428366964</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010859</v>
+        <v>929.5097208010709</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199589</v>
+        <v>755.0566915199439</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587077</v>
+        <v>606.1222818586926</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532522</v>
+        <v>446.8848268532371</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801372</v>
+        <v>300.3502688801221</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763253</v>
+        <v>163.6480708763103</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>238.3188829507231</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314819</v>
+        <v>506.4581980381317</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716203</v>
+        <v>800.9941814716124</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945922</v>
+        <v>1164.060649945913</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418493</v>
+        <v>1551.145052418481</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405883</v>
+        <v>1883.03186240587</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789045</v>
+        <v>2445.345361789031</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685355</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519842</v>
+        <v>1767.574213519827</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.833095200469</v>
+        <v>715.9213805686122</v>
       </c>
       <c r="C10" t="n">
-        <v>514.833095200469</v>
+        <v>546.9851976407053</v>
       </c>
       <c r="D10" t="n">
-        <v>514.833095200469</v>
+        <v>396.8685582283696</v>
       </c>
       <c r="E10" t="n">
-        <v>514.833095200469</v>
+        <v>248.9554646459765</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025586</v>
+        <v>102.0655171480661</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422493</v>
+        <v>102.0655171480661</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380186</v>
+        <v>76.63468308380115</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676575</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368932</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904052</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951771</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>1213.888280965687</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="V10" t="n">
-        <v>1213.888280965687</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="W10" t="n">
-        <v>924.471110928726</v>
+        <v>1346.351975440399</v>
       </c>
       <c r="X10" t="n">
-        <v>696.4815600307087</v>
+        <v>1118.362424542382</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.4815600307087</v>
+        <v>897.569845398852</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939072</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6031,10 +6031,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>388.6197041282755</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282755</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3228.789304425605</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569135</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.789304425605</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6445,34 +6445,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,43 +6527,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3678.660617711126</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,7 +6955,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,25 +7016,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424045</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D40" t="n">
-        <v>526.5658826424045</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E40" t="n">
-        <v>526.5658826424045</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F40" t="n">
-        <v>379.6759351444941</v>
+        <v>135.97962399503</v>
       </c>
       <c r="G40" t="n">
-        <v>212.4798358593741</v>
+        <v>135.97962399503</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1487.64609177864</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.22892174168</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.22892174168</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7657,37 +7657,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>229.7425191625314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761165</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418337</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>5.262887399593794</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167778</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446511</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8297,13 +8297,13 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
-        <v>26.13373767211345</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>84.38618054172713</v>
       </c>
       <c r="L9" t="n">
-        <v>210.4772158821406</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348486</v>
+        <v>20.98618304348528</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194312</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.62759525031595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405088</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.6731950980691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194311</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>54.58448189332847</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.5322397271932</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194311</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529508</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.6104454096909</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>86.11098998263023</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>37.1260136526042</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>67.07129414993838</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>104.0840080815012</v>
+        <v>98.55338150863629</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>53.40527886852249</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634687.7742349396</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349394</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634687.7742349396</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634687.7742349394</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176765</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977562</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911925</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>4.502779466533676e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580811</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606911</v>
+        <v>507909.2320606953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101821</v>
+        <v>95270.23779101719</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954686</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307046</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608925</v>
+        <v>138058.0537608936</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768799</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768803</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768803</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768803</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768876</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768852</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="P4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9947.144321768857</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192058.0245084867</v>
+        <v>-192058.0245084871</v>
       </c>
       <c r="C6" t="n">
-        <v>488029.9560827052</v>
+        <v>488029.9560827058</v>
       </c>
       <c r="D6" t="n">
-        <v>178874.7966230234</v>
+        <v>178874.7966230263</v>
       </c>
       <c r="E6" t="n">
-        <v>167989.0284913886</v>
+        <v>167641.6492370276</v>
       </c>
       <c r="F6" t="n">
-        <v>675898.2605520799</v>
+        <v>675550.8812977234</v>
       </c>
       <c r="G6" t="n">
-        <v>675898.2605520794</v>
+        <v>675550.8812977234</v>
       </c>
       <c r="H6" t="n">
-        <v>675898.26055208</v>
+        <v>675550.8812977234</v>
       </c>
       <c r="I6" t="n">
-        <v>675898.26055208</v>
+        <v>675550.8812977233</v>
       </c>
       <c r="J6" t="n">
-        <v>606899.1061329657</v>
+        <v>606551.726878609</v>
       </c>
       <c r="K6" t="n">
-        <v>675898.26055208</v>
+        <v>675550.8812977229</v>
       </c>
       <c r="L6" t="n">
-        <v>580628.0227610616</v>
+        <v>580280.6435067058</v>
       </c>
       <c r="M6" t="n">
-        <v>543180.2848566112</v>
+        <v>542832.9056022535</v>
       </c>
       <c r="N6" t="n">
-        <v>675898.2605520798</v>
+        <v>675550.8812977232</v>
       </c>
       <c r="O6" t="n">
-        <v>675898.2605520799</v>
+        <v>675550.8812977232</v>
       </c>
       <c r="P6" t="n">
-        <v>675898.2605520801</v>
+        <v>675550.8812977229</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694779</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627846</v>
+        <v>933.7024595627814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856978</v>
+        <v>640.140690085694</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694779</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933064</v>
+        <v>319.6474457933032</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788891</v>
+        <v>434.2730407788928</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>4.324365140464356e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139546</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841921</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139509</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>4.324365140464356e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619749</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>193.4308195281684</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468972</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590733</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.0125023390889</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>135.8747306692239</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150562</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527773</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.2082317531029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888214</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>136.6335216259694</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>23.15133882164002</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
         <v>85.52708871590687</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>240.1985697627552</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.53107331452689</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>124.1864911843154</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>171.8248577038372</v>
       </c>
       <c r="H8" t="n">
-        <v>70.04475690743809</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164522461</v>
+        <v>1.776449164537311</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>96.91160063724109</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>89.31662241408057</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28332,19 +28332,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.303506712758216e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28569,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.303506712758216e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29000,34 +29000,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-5.521416333681956e-14</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29103,10 +29103,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.035362272107575e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350876</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.010454101625</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167915</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986829</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658377</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269071</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702304</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7561239652867</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458302</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043654</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293988</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542723</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736541</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163903</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020917</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582783</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779064</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817679</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919117</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350552</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.2974337933785</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715648</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885563</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972539</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763199</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135494</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359952</v>
+        <v>659.0954050359929</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525089</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307905</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098303</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140487</v>
+        <v>85.53465245140457</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150845</v>
+        <v>0.300286218150844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436933</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026283</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502174</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571288</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617175</v>
+        <v>508.8678404617158</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152223</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519092</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947596</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366406</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413395</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415889</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102313</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307428</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942764</v>
+        <v>7.194100917942739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650349</v>
+        <v>0.09183958618650319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>381.285518532932</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107737</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>220.7280629601522</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>168.0123247135878</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,22 +33259,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>506.566534435233</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33736,28 +33736,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>432.1946015714836</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543622</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217697</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.9206030566445</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441509</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80.70129221722415</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823471</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460655</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015057</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337408</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.6168779964963</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966391</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043496</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496783</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>174.3604282380697</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705676</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313393</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655068</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087225</v>
+        <v>428.7491718087202</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155918</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091038</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430335</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797642</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234335</v>
+        <v>20.20013907234255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127619</v>
+        <v>188.9976037816844</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758584</v>
+        <v>270.8477930175844</v>
       </c>
       <c r="L9" t="n">
-        <v>507.9883102593952</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396992</v>
+        <v>366.7338065396975</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931889</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074648</v>
+        <v>335.2392020074631</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203665</v>
+        <v>567.9934337203653</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603491</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873337</v>
+        <v>25.68023017873296</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422861</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>82.88662398579322</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36296,10 +36296,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36533,10 +36533,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924701</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132147</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>290.0605676494653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991782</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
